--- a/biology/Zoologie/Clapier_(élevage)/Clapier_(élevage).xlsx
+++ b/biology/Zoologie/Clapier_(élevage)/Clapier_(élevage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clapier_(%C3%A9levage)</t>
+          <t>Clapier_(élevage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un clapier est une cage ou une cabane, c'est-à-dire une petite construction, où on élève des lapins domestiques ou des petits rongeurs.
 Le clapier comporte habituellement plusieurs cases souvent dotées de portes grillagées, chaque case étant affectée à un lapin ou une lapine, ou à un couple selon les souhaits de l'éleveur en matière de reproduction. Il est situé généralement dans la basse-cour avec les volailles, ce qui vaut à la viande de lapin d'être souvent commercialisée avec celles-ci, chez le volailler.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clapier_(%C3%A9levage)</t>
+          <t>Clapier_(élevage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'origine et jusqu'au Moyen Âge, les lapins européens (Oryctolagus cuniculus) sauvages étaient élevés en semi liberté dans de vastes enclos, les garennes. De là vient le nom de « lapin de garenne » pour cette espèce sauvage. À cette époque un clapier désigne un terrier creusé artificiellement dans la garenne à l'intention des lapins[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'origine et jusqu'au Moyen Âge, les lapins européens (Oryctolagus cuniculus) sauvages étaient élevés en semi liberté dans de vastes enclos, les garennes. De là vient le nom de « lapin de garenne » pour cette espèce sauvage. À cette époque un clapier désigne un terrier creusé artificiellement dans la garenne à l'intention des lapins.
 C'est pour faciliter la récolte des lapereaux nouveau-nés, les laurices dont ils sont grands consommateurs en période de carême, que les moines médiévaux commencent à conserver les lapines dans de petites cases, beaucoup plus pratiques que les enclos.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clapier_(%C3%A9levage)</t>
+          <t>Clapier_(élevage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La conception du clapier est modifiée au fil du temps pour en faciliter l'entretien, le montage ou le transport, et la résistance aux prédateurs comme le renard, grand prédateur des basses-cours.
 	Quelques types de clapiers
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clapier_(%C3%A9levage)</t>
+          <t>Clapier_(élevage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,10 +607,12 @@
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le langage courant, l'expression « cage à lapin » est un qualificatif péjoratif pour un appartement dans un grand ensemble. Cette expression est courante depuis au moins les années 1970.
-Le château de Clapier est un vignoble des Côtes du Luberon ayant appartenu au marquis de Mirabeau. Son nom vient du lieu-dit Clapier et a pour origine le mot occitan « clapièr », qui veut dire « tas de pierre ». Jamai clapièr a fach bon prat, dit le proverbe (« Jamais clapier n'a fait bon pré »)[2].
+Le château de Clapier est un vignoble des Côtes du Luberon ayant appartenu au marquis de Mirabeau. Son nom vient du lieu-dit Clapier et a pour origine le mot occitan « clapièr », qui veut dire « tas de pierre ». Jamai clapièr a fach bon prat, dit le proverbe (« Jamais clapier n'a fait bon pré »).
 </t>
         </is>
       </c>
